--- a/data/trans_orig/P21D_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2939CBC1-B6C1-4952-854C-3A1CA6E5376D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4BEE6C7-3214-46D7-8146-A827656E8EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BD416B9A-7ED4-493F-A3C4-E1CE9168E47C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0346439-35E5-4493-BB66-C37402C7D4E2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -669,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EDAD8B-A630-468A-8805-2C0A483C2CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7053BAE2-62A5-4573-BEF0-6717611CC4D0}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4BEE6C7-3214-46D7-8146-A827656E8EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E64C8282-9137-4CD3-B278-7801BC88DB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0346439-35E5-4493-BB66-C37402C7D4E2}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A974E49-AF48-488C-B344-33541855FABF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -134,13 +134,13 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,39%</t>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,72%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -149,13 +149,13 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,61%</t>
+    <t>98,39%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,28%</t>
+    <t>99,21%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -239,7 +239,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,33%</t>
+    <t>0,31%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -251,7 +251,7 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,67%</t>
+    <t>99,69%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -669,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7053BAE2-62A5-4573-BEF0-6717611CC4D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F12E818-3088-4CBB-8EC5-18C6B0E80650}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E64C8282-9137-4CD3-B278-7801BC88DB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9E5D98-D7D5-4868-AF7F-A86AD32936D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A974E49-AF48-488C-B344-33541855FABF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FE1E92D-D901-4C31-9A45-FAFEB677E102}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -134,13 +134,13 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,39%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,79%</t>
+    <t>0,72%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -149,13 +149,13 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,39%</t>
+    <t>98,61%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,21%</t>
+    <t>99,28%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -239,7 +239,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,31%</t>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -251,7 +251,7 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,69%</t>
+    <t>99,67%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -669,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F12E818-3088-4CBB-8EC5-18C6B0E80650}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572F8688-0DEE-46DA-8689-69A80EFA2B81}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D_1_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9E5D98-D7D5-4868-AF7F-A86AD32936D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59A7F8E8-55DF-4EC2-99A6-6564376D3B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FE1E92D-D901-4C31-9A45-FAFEB677E102}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F1118CE6-0244-4604-AC1A-A7F30E53CC42}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="73">
   <si>
     <t>Población que, necesitando atención sanitaria médica, no la pudo recibir por motivos económicos en 2023 (Tasa respuesta: 43,88%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -104,7 +104,7 @@
     <t>98,93%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,31%</t>
@@ -125,7 +125,7 @@
     <t>99,49%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,86%</t>
@@ -134,13 +134,13 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
   </si>
   <si>
     <t>99,14%</t>
@@ -149,16 +149,16 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>45/54</t>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,65%</t>
@@ -179,82 +179,79 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>0,3%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>1,51%</t>
   </si>
   <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
     <t>99,7%</t>
   </si>
   <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
+    <t>98,49%</t>
   </si>
   <si>
     <t>99,25%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
   </si>
   <si>
     <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -669,8 +666,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572F8688-0DEE-46DA-8689-69A80EFA2B81}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AEA4DB-D309-48E2-B606-F26CB70E90A5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -841,7 +838,7 @@
         <v>85</v>
       </c>
       <c r="D5" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -856,7 +853,7 @@
         <v>93</v>
       </c>
       <c r="I5" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -871,7 +868,7 @@
         <v>178</v>
       </c>
       <c r="N5" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -892,7 +889,7 @@
         <v>85</v>
       </c>
       <c r="D6" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -907,7 +904,7 @@
         <v>93</v>
       </c>
       <c r="I6" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -922,7 +919,7 @@
         <v>178</v>
       </c>
       <c r="N6" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -996,7 +993,7 @@
         <v>145</v>
       </c>
       <c r="D8" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1011,7 +1008,7 @@
         <v>228</v>
       </c>
       <c r="I8" s="7">
-        <v>256829</v>
+        <v>291119</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1026,7 +1023,7 @@
         <v>373</v>
       </c>
       <c r="N8" s="7">
-        <v>463347</v>
+        <v>495841</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1047,7 +1044,7 @@
         <v>145</v>
       </c>
       <c r="D9" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1062,7 +1059,7 @@
         <v>228</v>
       </c>
       <c r="I9" s="7">
-        <v>256829</v>
+        <v>291119</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1077,7 +1074,7 @@
         <v>373</v>
       </c>
       <c r="N9" s="7">
-        <v>463347</v>
+        <v>495841</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1115,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>31</v>
@@ -1130,7 +1127,7 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>780</v>
+        <v>713</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>33</v>
@@ -1151,7 +1148,7 @@
         <v>222</v>
       </c>
       <c r="D11" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1166,7 +1163,7 @@
         <v>394</v>
       </c>
       <c r="I11" s="7">
-        <v>276573</v>
+        <v>256976</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -1181,7 +1178,7 @@
         <v>616</v>
       </c>
       <c r="N11" s="7">
-        <v>500348</v>
+        <v>472462</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>38</v>
@@ -1202,7 +1199,7 @@
         <v>222</v>
       </c>
       <c r="D12" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1217,7 +1214,7 @@
         <v>395</v>
       </c>
       <c r="I12" s="7">
-        <v>277353</v>
+        <v>257689</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1232,7 +1229,7 @@
         <v>617</v>
       </c>
       <c r="N12" s="7">
-        <v>501128</v>
+        <v>473175</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1306,7 +1303,7 @@
         <v>296</v>
       </c>
       <c r="D14" s="7">
-        <v>347440</v>
+        <v>526558</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1321,7 +1318,7 @@
         <v>529</v>
       </c>
       <c r="I14" s="7">
-        <v>349095</v>
+        <v>321020</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1336,7 +1333,7 @@
         <v>825</v>
       </c>
       <c r="N14" s="7">
-        <v>696535</v>
+        <v>847578</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1357,7 +1354,7 @@
         <v>296</v>
       </c>
       <c r="D15" s="7">
-        <v>347440</v>
+        <v>526558</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1372,7 +1369,7 @@
         <v>529</v>
       </c>
       <c r="I15" s="7">
-        <v>349095</v>
+        <v>321020</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1387,7 +1384,7 @@
         <v>825</v>
       </c>
       <c r="N15" s="7">
-        <v>696535</v>
+        <v>847578</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1419,37 +1416,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>744</v>
+        <v>687</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1461,13 +1458,13 @@
         <v>278</v>
       </c>
       <c r="D17" s="7">
-        <v>255571</v>
+        <v>238504</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -1476,13 +1473,13 @@
         <v>410</v>
       </c>
       <c r="I17" s="7">
-        <v>247407</v>
+        <v>226639</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -1491,13 +1488,13 @@
         <v>688</v>
       </c>
       <c r="N17" s="7">
-        <v>502977</v>
+        <v>465143</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -1512,7 +1509,7 @@
         <v>278</v>
       </c>
       <c r="D18" s="7">
-        <v>255571</v>
+        <v>238504</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1527,7 +1524,7 @@
         <v>411</v>
       </c>
       <c r="I18" s="7">
-        <v>248151</v>
+        <v>227326</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1542,7 +1539,7 @@
         <v>689</v>
       </c>
       <c r="N18" s="7">
-        <v>503721</v>
+        <v>465830</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1556,7 +1553,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1574,7 +1571,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1589,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -1604,7 +1601,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1613,46 +1610,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="D20" s="7">
-        <v>293451</v>
+        <v>156354</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>720</v>
+        <v>375</v>
       </c>
       <c r="I20" s="7">
-        <v>394606</v>
+        <v>185860</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>1154</v>
+        <v>617</v>
       </c>
       <c r="N20" s="7">
-        <v>688057</v>
+        <v>342213</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -1664,10 +1661,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="D21" s="7">
-        <v>293451</v>
+        <v>156354</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -1679,10 +1676,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>720</v>
+        <v>375</v>
       </c>
       <c r="I21" s="7">
-        <v>394606</v>
+        <v>185860</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1694,10 +1691,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>1154</v>
+        <v>617</v>
       </c>
       <c r="N21" s="7">
-        <v>688057</v>
+        <v>342213</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1711,7 +1708,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1729,37 +1726,37 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1523</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>1523</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1768,49 +1765,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1460</v>
+        <v>192</v>
       </c>
       <c r="D23" s="7">
-        <v>1518531</v>
+        <v>118206</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>2374</v>
+        <v>345</v>
       </c>
       <c r="I23" s="7">
-        <v>1683164</v>
+        <v>170615</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>3834</v>
+        <v>537</v>
       </c>
       <c r="N23" s="7">
-        <v>3201695</v>
+        <v>288822</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1819,63 +1816,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>192</v>
+      </c>
+      <c r="D24" s="7">
+        <v>118206</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>345</v>
+      </c>
+      <c r="I24" s="7">
+        <v>170615</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>537</v>
+      </c>
+      <c r="N24" s="7">
+        <v>288822</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1400</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1400</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>1460</v>
       </c>
-      <c r="D24" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D26" s="7">
+        <v>1663778</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2374</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1592574</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3834</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3256352</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1460</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1663778</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>2376</v>
       </c>
-      <c r="I24" s="7">
-        <v>1684687</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1593974</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>3836</v>
       </c>
-      <c r="N24" s="7">
-        <v>3203218</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>73</v>
+      <c r="N27" s="7">
+        <v>3257752</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
